--- a/3d-car-bom.xlsx
+++ b/3d-car-bom.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="My BOM" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="1st Build BOM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tarmo3 BOM" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -533,7 +533,7 @@
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -568,11 +568,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -651,11 +646,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -700,11 +695,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,11 +703,11 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -798,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -808,7 +799,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.53"/>
@@ -818,7 +809,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="34.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="19.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="8" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,12 +1455,12 @@
       <c r="F34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="11" t="n">
+      <c r="G34" s="9" t="n">
         <v>14.34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="C35" s="2" t="n">
         <v>1</v>
       </c>
@@ -1482,18 +1473,18 @@
       <c r="F35" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="9" t="n">
         <v>6.49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
-      <c r="G37" s="13" t="n">
+      <c r="G37" s="12" t="n">
         <f aca="false">SUM(G3:G35)</f>
         <v>467.66</v>
       </c>
@@ -1502,7 +1493,7 @@
       <c r="D39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1552,7 +1543,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1561,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1571,7 +1562,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.15"/>
@@ -1581,27 +1572,27 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="19.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
@@ -1640,7 +1631,7 @@
       <c r="G6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="n">
@@ -1998,10 +1989,10 @@
       <c r="D25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="16"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="3" t="s">
@@ -2057,7 +2048,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
